--- a/Zillow_Pittsburgh_forSale_08-20.xlsx
+++ b/Zillow_Pittsburgh_forSale_08-20.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimzedli/Documents/GitHub/info4310_zillow_vis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B225AF2-4B5E-A445-A26D-AD326B39BD40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">filtered!$B$1:$AE$424</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1688,7 +1694,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1792,6 +1798,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2116,19 +2130,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF484"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.5" customWidth="1"/>
+    <col min="20" max="20" width="24.1640625" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" customWidth="1"/>
+    <col min="22" max="22" width="20.33203125" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" customWidth="1"/>
+    <col min="24" max="24" width="26.6640625" customWidth="1"/>
+    <col min="25" max="25" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="23" customWidth="1"/>
+    <col min="28" max="28" width="16.83203125" customWidth="1"/>
+    <col min="29" max="29" width="17.5" customWidth="1"/>
+    <col min="30" max="30" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2324,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2422,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2520,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2618,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2716,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2814,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2912,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -3010,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -3108,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -3197,7 +3228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3295,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -3360,7 +3391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3458,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3508,7 +3539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -3606,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -3695,7 +3726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -3793,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -3888,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -3986,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -4030,7 +4061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -4128,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -4223,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -4321,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -4419,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -4517,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -4615,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -4713,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -4811,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -4906,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -5004,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -5102,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -5140,7 +5171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -5178,7 +5209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -5216,7 +5247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -5305,7 +5336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -5403,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -5501,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -5590,7 +5621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -5685,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -5783,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -5881,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -5979,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -6077,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -6175,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -6264,7 +6295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -6362,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -6460,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -6558,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -6656,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -6754,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -6852,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -6950,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -7048,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -7137,7 +7168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -7208,7 +7239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -7297,7 +7328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -7395,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -7493,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -7591,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -7680,7 +7711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -7769,7 +7800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:32">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -7867,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -7965,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -8063,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -8161,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -8259,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -8357,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -8455,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>140</v>
       </c>
@@ -8544,7 +8575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -8630,7 +8661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -8728,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -8826,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -8924,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -9022,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -9120,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -9218,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -9316,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:32">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>150</v>
       </c>
@@ -9414,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -9512,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -9610,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>154</v>
       </c>
@@ -9708,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>155</v>
       </c>
@@ -9806,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -9868,7 +9899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:32">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -9966,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>159</v>
       </c>
@@ -10064,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:32">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>160</v>
       </c>
@@ -10153,7 +10184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:32">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -10242,7 +10273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:32">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>163</v>
       </c>
@@ -10340,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -10438,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:32">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>165</v>
       </c>
@@ -10536,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:32">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>166</v>
       </c>
@@ -10634,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:32">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -10732,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:32">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>168</v>
       </c>
@@ -10830,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:32">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>169</v>
       </c>
@@ -10928,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:32">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>170</v>
       </c>
@@ -11026,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:32">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>172</v>
       </c>
@@ -11115,7 +11146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:32">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>173</v>
       </c>
@@ -11213,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:32">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>174</v>
       </c>
@@ -11302,7 +11333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:32">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>175</v>
       </c>
@@ -11400,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:32">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>176</v>
       </c>
@@ -11498,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:32">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>177</v>
       </c>
@@ -11596,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:32">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>178</v>
       </c>
@@ -11694,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:32">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>179</v>
       </c>
@@ -11792,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:32">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -11890,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:32">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>181</v>
       </c>
@@ -11979,7 +12010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:32">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>182</v>
       </c>
@@ -12077,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:32">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>183</v>
       </c>
@@ -12175,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:32">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -12273,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:32">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>185</v>
       </c>
@@ -12371,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:32">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>186</v>
       </c>
@@ -12469,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:32">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>188</v>
       </c>
@@ -12531,7 +12562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:32">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>189</v>
       </c>
@@ -12629,7 +12660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:32">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>190</v>
       </c>
@@ -12718,7 +12749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:32">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>191</v>
       </c>
@@ -12807,7 +12838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:32">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -12905,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:32">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>193</v>
       </c>
@@ -13003,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:32">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>194</v>
       </c>
@@ -13092,7 +13123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:32">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>195</v>
       </c>
@@ -13190,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:32">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>196</v>
       </c>
@@ -13249,7 +13280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:32">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>198</v>
       </c>
@@ -13347,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:32">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>199</v>
       </c>
@@ -13445,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:32">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>200</v>
       </c>
@@ -13540,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:32">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>201</v>
       </c>
@@ -13602,7 +13633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:32">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>203</v>
       </c>
@@ -13664,7 +13695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:32">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>204</v>
       </c>
@@ -13762,7 +13793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:32">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>205</v>
       </c>
@@ -13860,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:32">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>206</v>
       </c>
@@ -13958,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:32">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -14056,7 +14087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:32">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>210</v>
       </c>
@@ -14124,7 +14155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:32">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>211</v>
       </c>
@@ -14213,7 +14244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:32">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>212</v>
       </c>
@@ -14308,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:32">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>213</v>
       </c>
@@ -14406,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:32">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>214</v>
       </c>
@@ -14504,7 +14535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:32">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -14593,7 +14624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:32">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>216</v>
       </c>
@@ -14691,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:32">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>217</v>
       </c>
@@ -14789,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:32">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>218</v>
       </c>
@@ -14887,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:32">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>219</v>
       </c>
@@ -14934,7 +14965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:32">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>221</v>
       </c>
@@ -14981,7 +15012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:32">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>222</v>
       </c>
@@ -15070,7 +15101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:32">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>223</v>
       </c>
@@ -15168,7 +15199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:32">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>224</v>
       </c>
@@ -15266,7 +15297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:32">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>225</v>
       </c>
@@ -15364,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:32">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>226</v>
       </c>
@@ -15426,7 +15457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:32">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>227</v>
       </c>
@@ -15524,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:32">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>228</v>
       </c>
@@ -15586,7 +15617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:32">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>230</v>
       </c>
@@ -15675,7 +15706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:32">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>231</v>
       </c>
@@ -15773,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:32">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>232</v>
       </c>
@@ -15820,7 +15851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:32">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>233</v>
       </c>
@@ -15918,7 +15949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:32">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>234</v>
       </c>
@@ -16007,7 +16038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:32">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>235</v>
       </c>
@@ -16105,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:32">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>236</v>
       </c>
@@ -16203,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:32">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>237</v>
       </c>
@@ -16301,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:32">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>238</v>
       </c>
@@ -16399,7 +16430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:32">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>240</v>
       </c>
@@ -16497,7 +16528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:32">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>242</v>
       </c>
@@ -16595,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:32">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>243</v>
       </c>
@@ -16693,7 +16724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:32">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>244</v>
       </c>
@@ -16791,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:32">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>245</v>
       </c>
@@ -16889,7 +16920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:32">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>246</v>
       </c>
@@ -16951,7 +16982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:32">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>247</v>
       </c>
@@ -17049,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:32">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>248</v>
       </c>
@@ -17147,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:32">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>249</v>
       </c>
@@ -17245,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:32">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>250</v>
       </c>
@@ -17343,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:32">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>251</v>
       </c>
@@ -17441,7 +17472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:32">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>252</v>
       </c>
@@ -17539,7 +17570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:32">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>253</v>
       </c>
@@ -17637,7 +17668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:32">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>254</v>
       </c>
@@ -17705,7 +17736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:32">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>255</v>
       </c>
@@ -17803,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:32">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>249</v>
       </c>
@@ -17901,7 +17932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:32">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>253</v>
       </c>
@@ -17999,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:32">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>252</v>
       </c>
@@ -18097,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:32">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>251</v>
       </c>
@@ -18195,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:32">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>254</v>
       </c>
@@ -18263,7 +18294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:32">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>255</v>
       </c>
@@ -18361,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:32">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>256</v>
       </c>
@@ -18459,7 +18490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:32">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>257</v>
       </c>
@@ -18518,7 +18549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:32">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>259</v>
       </c>
@@ -18616,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:32">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>260</v>
       </c>
@@ -18714,7 +18745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:32">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>262</v>
       </c>
@@ -18812,7 +18843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:32">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>263</v>
       </c>
@@ -18910,7 +18941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:32">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>264</v>
       </c>
@@ -19008,7 +19039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:32">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>265</v>
       </c>
@@ -19106,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:32">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>266</v>
       </c>
@@ -19195,7 +19226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:32">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>267</v>
       </c>
@@ -19293,7 +19324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:32">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>268</v>
       </c>
@@ -19391,7 +19422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:32">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>269</v>
       </c>
@@ -19489,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:32">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>270</v>
       </c>
@@ -19587,7 +19618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:32">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>271</v>
       </c>
@@ -19649,7 +19680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:32">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -19747,7 +19778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:32">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>273</v>
       </c>
@@ -19836,7 +19867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:32">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>274</v>
       </c>
@@ -19934,7 +19965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:32">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>275</v>
       </c>
@@ -20032,7 +20063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:32">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>276</v>
       </c>
@@ -20130,7 +20161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:32">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>277</v>
       </c>
@@ -20198,7 +20229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:32">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>278</v>
       </c>
@@ -20296,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:32">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>279</v>
       </c>
@@ -20394,7 +20425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:32">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>280</v>
       </c>
@@ -20483,7 +20514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:32">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>281</v>
       </c>
@@ -20572,7 +20603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:32">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>282</v>
       </c>
@@ -20634,7 +20665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:32">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>284</v>
       </c>
@@ -20732,7 +20763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:32">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>285</v>
       </c>
@@ -20827,7 +20858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:32">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>287</v>
       </c>
@@ -20883,7 +20914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:32">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>289</v>
       </c>
@@ -20972,7 +21003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:32">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>290</v>
       </c>
@@ -21070,7 +21101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:32">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>292</v>
       </c>
@@ -21159,7 +21190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:32">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>293</v>
       </c>
@@ -21248,7 +21279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:32">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>294</v>
       </c>
@@ -21316,7 +21347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:32">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>296</v>
       </c>
@@ -21414,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:32">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>297</v>
       </c>
@@ -21512,7 +21543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:32">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -21601,7 +21632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:32">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -21699,7 +21730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:32">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>301</v>
       </c>
@@ -21797,7 +21828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:32">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>302</v>
       </c>
@@ -21895,7 +21926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:32">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>304</v>
       </c>
@@ -21993,7 +22024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:32">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>305</v>
       </c>
@@ -22091,7 +22122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:32">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>306</v>
       </c>
@@ -22189,7 +22220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:32">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>294</v>
       </c>
@@ -22257,7 +22288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:32">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>296</v>
       </c>
@@ -22355,7 +22386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:32">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>300</v>
       </c>
@@ -22453,7 +22484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:32">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>301</v>
       </c>
@@ -22551,7 +22582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:32">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>297</v>
       </c>
@@ -22649,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:32">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>299</v>
       </c>
@@ -22738,7 +22769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:32">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>302</v>
       </c>
@@ -22836,7 +22867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:32">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>304</v>
       </c>
@@ -22934,7 +22965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:32">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>305</v>
       </c>
@@ -23032,7 +23063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:32">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>306</v>
       </c>
@@ -23130,7 +23161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:32">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>307</v>
       </c>
@@ -23228,7 +23259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:32">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>308</v>
       </c>
@@ -23326,7 +23357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:32">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>309</v>
       </c>
@@ -23424,7 +23455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:32">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>310</v>
       </c>
@@ -23522,7 +23553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:32">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>311</v>
       </c>
@@ -23620,7 +23651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:32">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>312</v>
       </c>
@@ -23718,7 +23749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:32">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>313</v>
       </c>
@@ -23816,7 +23847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:32">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>314</v>
       </c>
@@ -23914,7 +23945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:32">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>315</v>
       </c>
@@ -24009,7 +24040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:32">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>316</v>
       </c>
@@ -24065,7 +24096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:32">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>317</v>
       </c>
@@ -24163,7 +24194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:32">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>318</v>
       </c>
@@ -24261,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:32">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>319</v>
       </c>
@@ -24317,7 +24348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:32">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>321</v>
       </c>
@@ -24415,7 +24446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:32">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>322</v>
       </c>
@@ -24513,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:32">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>323</v>
       </c>
@@ -24611,7 +24642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:32">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>324</v>
       </c>
@@ -24709,7 +24740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:32">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>325</v>
       </c>
@@ -24804,7 +24835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:32">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>326</v>
       </c>
@@ -24902,7 +24933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:32">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>327</v>
       </c>
@@ -24991,7 +25022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:32">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>328</v>
       </c>
@@ -25089,7 +25120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:32">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>329</v>
       </c>
@@ -25187,7 +25218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:32">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>330</v>
       </c>
@@ -25276,7 +25307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:32">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>331</v>
       </c>
@@ -25374,7 +25405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:32">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>332</v>
       </c>
@@ -25472,7 +25503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:32">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>333</v>
       </c>
@@ -25561,7 +25592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:32">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>334</v>
       </c>
@@ -25650,7 +25681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:32">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>335</v>
       </c>
@@ -25748,7 +25779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:32">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>336</v>
       </c>
@@ -25816,7 +25847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:32">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>337</v>
       </c>
@@ -25914,7 +25945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:32">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>338</v>
       </c>
@@ -25976,7 +26007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:32">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>340</v>
       </c>
@@ -26038,7 +26069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:32">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>341</v>
       </c>
@@ -26100,7 +26131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:32">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>342</v>
       </c>
@@ -26198,7 +26229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:32">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>343</v>
       </c>
@@ -26296,7 +26327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:32">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>344</v>
       </c>
@@ -26394,7 +26425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:32">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>345</v>
       </c>
@@ -26492,7 +26523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:32">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>346</v>
       </c>
@@ -26590,7 +26621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:32">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>347</v>
       </c>
@@ -26688,7 +26719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:32">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>348</v>
       </c>
@@ -26786,7 +26817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:32">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>349</v>
       </c>
@@ -26884,7 +26915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:32">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>350</v>
       </c>
@@ -26982,7 +27013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:32">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>351</v>
       </c>
@@ -27080,7 +27111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:32">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>352</v>
       </c>
@@ -27139,7 +27170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:32">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>353</v>
       </c>
@@ -27228,7 +27259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:32">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>354</v>
       </c>
@@ -27326,7 +27357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:32">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>356</v>
       </c>
@@ -27415,7 +27446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:32">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>357</v>
       </c>
@@ -27495,7 +27526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:32">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>358</v>
       </c>
@@ -27593,7 +27624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:32">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>359</v>
       </c>
@@ -27691,7 +27722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:32">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>361</v>
       </c>
@@ -27789,7 +27820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:32">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>362</v>
       </c>
@@ -27887,7 +27918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:32">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>363</v>
       </c>
@@ -27985,7 +28016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:32">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>364</v>
       </c>
@@ -28083,7 +28114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:32">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>365</v>
       </c>
@@ -28181,7 +28212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:32">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>366</v>
       </c>
@@ -28279,7 +28310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:32">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>367</v>
       </c>
@@ -28377,7 +28408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:32">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>368</v>
       </c>
@@ -28475,7 +28506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:32">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>369</v>
       </c>
@@ -28573,7 +28604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:32">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>370</v>
       </c>
@@ -28671,7 +28702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:32">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>371</v>
       </c>
@@ -28769,7 +28800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:32">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -28846,7 +28877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:32">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>356</v>
       </c>
@@ -28935,7 +28966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:32">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>357</v>
       </c>
@@ -29015,7 +29046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:32">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>358</v>
       </c>
@@ -29113,7 +29144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:32">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>361</v>
       </c>
@@ -29211,7 +29242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:32">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>359</v>
       </c>
@@ -29309,7 +29340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:32">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>362</v>
       </c>
@@ -29407,7 +29438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:32">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>365</v>
       </c>
@@ -29505,7 +29536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:32">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>363</v>
       </c>
@@ -29603,7 +29634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:32">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>364</v>
       </c>
@@ -29701,7 +29732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:32">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>366</v>
       </c>
@@ -29799,7 +29830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:32">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>367</v>
       </c>
@@ -29897,7 +29928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:32">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>368</v>
       </c>
@@ -29995,7 +30026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:32">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>369</v>
       </c>
@@ -30093,7 +30124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:32">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>370</v>
       </c>
@@ -30191,7 +30222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:32">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>371</v>
       </c>
@@ -30289,7 +30320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:32">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>372</v>
       </c>
@@ -30366,7 +30397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:32">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>373</v>
       </c>
@@ -30464,7 +30495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:32">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>374</v>
       </c>
@@ -30553,7 +30584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:32">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>375</v>
       </c>
@@ -30621,7 +30652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:32">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>376</v>
       </c>
@@ -30719,7 +30750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:32">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>377</v>
       </c>
@@ -30817,7 +30848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:32">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>378</v>
       </c>
@@ -30915,7 +30946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:32">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>380</v>
       </c>
@@ -31013,7 +31044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:32">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>381</v>
       </c>
@@ -31078,7 +31109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:32">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>382</v>
       </c>
@@ -31176,7 +31207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:32">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>383</v>
       </c>
@@ -31274,7 +31305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:32">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>384</v>
       </c>
@@ -31372,7 +31403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:32">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>385</v>
       </c>
@@ -31470,7 +31501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:32">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>386</v>
       </c>
@@ -31568,7 +31599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:32">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>387</v>
       </c>
@@ -31666,7 +31697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:32">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>388</v>
       </c>
@@ -31764,7 +31795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:32">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>389</v>
       </c>
@@ -31862,7 +31893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:32">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>390</v>
       </c>
@@ -31951,7 +31982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:32">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>391</v>
       </c>
@@ -32019,7 +32050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:32">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>392</v>
       </c>
@@ -32117,7 +32148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:32">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>393</v>
       </c>
@@ -32215,7 +32246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:32">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>394</v>
       </c>
@@ -32313,7 +32344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:32">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>395</v>
       </c>
@@ -32411,7 +32442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:32">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>396</v>
       </c>
@@ -32458,7 +32489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:32">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>397</v>
       </c>
@@ -32556,7 +32587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:32">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>398</v>
       </c>
@@ -32654,7 +32685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:32">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>399</v>
       </c>
@@ -32743,7 +32774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:32">
+    <row r="334" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>400</v>
       </c>
@@ -32841,7 +32872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:32">
+    <row r="335" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>401</v>
       </c>
@@ -32930,7 +32961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:32">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>402</v>
       </c>
@@ -33028,7 +33059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:32">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>403</v>
       </c>
@@ -33126,7 +33157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:32">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>404</v>
       </c>
@@ -33224,7 +33255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:32">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>405</v>
       </c>
@@ -33322,7 +33353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:32">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>406</v>
       </c>
@@ -33411,7 +33442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:32">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>407</v>
       </c>
@@ -33470,7 +33501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:32">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>408</v>
       </c>
@@ -33568,7 +33599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:32">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>409</v>
       </c>
@@ -33666,7 +33697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:32">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>410</v>
       </c>
@@ -33755,7 +33786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:32">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>411</v>
       </c>
@@ -33817,7 +33848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:32">
+    <row r="346" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>412</v>
       </c>
@@ -33879,7 +33910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:32">
+    <row r="347" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>413</v>
       </c>
@@ -33977,7 +34008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:32">
+    <row r="348" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>414</v>
       </c>
@@ -34075,7 +34106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:32">
+    <row r="349" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>415</v>
       </c>
@@ -34143,7 +34174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:32">
+    <row r="350" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>416</v>
       </c>
@@ -34241,7 +34272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:32">
+    <row r="351" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>417</v>
       </c>
@@ -34339,7 +34370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:32">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>418</v>
       </c>
@@ -34428,7 +34459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:32">
+    <row r="353" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>419</v>
       </c>
@@ -34493,7 +34524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:32">
+    <row r="354" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>420</v>
       </c>
@@ -34591,7 +34622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:32">
+    <row r="355" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>421</v>
       </c>
@@ -34689,7 +34720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:32">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>422</v>
       </c>
@@ -34787,7 +34818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:32">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>423</v>
       </c>
@@ -34885,7 +34916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:32">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>424</v>
       </c>
@@ -34983,7 +35014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:32">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>425</v>
       </c>
@@ -35081,7 +35112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:32">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>426</v>
       </c>
@@ -35128,7 +35159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:32">
+    <row r="361" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>427</v>
       </c>
@@ -35226,7 +35257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:32">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>428</v>
       </c>
@@ -35324,7 +35355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:32">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>429</v>
       </c>
@@ -35422,7 +35453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:32">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>430</v>
       </c>
@@ -35520,7 +35551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:32">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>431</v>
       </c>
@@ -35618,7 +35649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:32">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>432</v>
       </c>
@@ -35716,7 +35747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:32">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>433</v>
       </c>
@@ -35814,7 +35845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:32">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>434</v>
       </c>
@@ -35912,7 +35943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:32">
+    <row r="369" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>435</v>
       </c>
@@ -36010,7 +36041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:32">
+    <row r="370" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>436</v>
       </c>
@@ -36108,7 +36139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:32">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>437</v>
       </c>
@@ -36176,7 +36207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:32">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>438</v>
       </c>
@@ -36241,7 +36272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:32">
+    <row r="373" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>439</v>
       </c>
@@ -36303,7 +36334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:32">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>440</v>
       </c>
@@ -36392,7 +36423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:32">
+    <row r="375" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>441</v>
       </c>
@@ -36481,7 +36512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:32">
+    <row r="376" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>442</v>
       </c>
@@ -36579,7 +36610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:32">
+    <row r="377" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>443</v>
       </c>
@@ -36677,7 +36708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:32">
+    <row r="378" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>444</v>
       </c>
@@ -36745,7 +36776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:32">
+    <row r="379" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>445</v>
       </c>
@@ -36843,7 +36874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:32">
+    <row r="380" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>446</v>
       </c>
@@ -36908,7 +36939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:32">
+    <row r="381" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>447</v>
       </c>
@@ -37006,7 +37037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:32">
+    <row r="382" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>448</v>
       </c>
@@ -37104,7 +37135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:32">
+    <row r="383" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>449</v>
       </c>
@@ -37202,7 +37233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:32">
+    <row r="384" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>450</v>
       </c>
@@ -37291,7 +37322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:32">
+    <row r="385" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>451</v>
       </c>
@@ -37389,7 +37420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:32">
+    <row r="386" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>452</v>
       </c>
@@ -37487,7 +37518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:32">
+    <row r="387" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>453</v>
       </c>
@@ -37585,7 +37616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:32">
+    <row r="388" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>454</v>
       </c>
@@ -37683,7 +37714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:32">
+    <row r="389" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>455</v>
       </c>
@@ -37781,7 +37812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:32">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>456</v>
       </c>
@@ -37852,7 +37883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:32">
+    <row r="391" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>458</v>
       </c>
@@ -37950,7 +37981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:32">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>459</v>
       </c>
@@ -38039,7 +38070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:32">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>460</v>
       </c>
@@ -38137,7 +38168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:32">
+    <row r="394" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>461</v>
       </c>
@@ -38232,7 +38263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:32">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>462</v>
       </c>
@@ -38300,7 +38331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:32">
+    <row r="396" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>463</v>
       </c>
@@ -38398,7 +38429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:32">
+    <row r="397" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>464</v>
       </c>
@@ -38496,7 +38527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:32">
+    <row r="398" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>465</v>
       </c>
@@ -38594,7 +38625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:32">
+    <row r="399" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>466</v>
       </c>
@@ -38692,7 +38723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:32">
+    <row r="400" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>467</v>
       </c>
@@ -38790,7 +38821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:32">
+    <row r="401" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>468</v>
       </c>
@@ -38888,7 +38919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:32">
+    <row r="402" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>469</v>
       </c>
@@ -38977,7 +39008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:32">
+    <row r="403" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>470</v>
       </c>
@@ -39066,7 +39097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:32">
+    <row r="404" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>471</v>
       </c>
@@ -39164,7 +39195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:32">
+    <row r="405" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>472</v>
       </c>
@@ -39262,7 +39293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:32">
+    <row r="406" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>473</v>
       </c>
@@ -39351,7 +39382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:32">
+    <row r="407" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>474</v>
       </c>
@@ -39449,7 +39480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:32">
+    <row r="408" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>475</v>
       </c>
@@ -39538,7 +39569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:32">
+    <row r="409" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>476</v>
       </c>
@@ -39576,7 +39607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="410" spans="1:32">
+    <row r="410" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>477</v>
       </c>
@@ -39641,7 +39672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:32">
+    <row r="411" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>478</v>
       </c>
@@ -39739,7 +39770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:32">
+    <row r="412" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>479</v>
       </c>
@@ -39837,7 +39868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:32">
+    <row r="413" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>480</v>
       </c>
@@ -39935,7 +39966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:32">
+    <row r="414" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>482</v>
       </c>
@@ -40000,7 +40031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:32">
+    <row r="415" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>479</v>
       </c>
@@ -40098,7 +40129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:32">
+    <row r="416" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>476</v>
       </c>
@@ -40136,7 +40167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:32">
+    <row r="417" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>483</v>
       </c>
@@ -40234,7 +40265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:32">
+    <row r="418" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>484</v>
       </c>
@@ -40332,7 +40363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:32">
+    <row r="419" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>485</v>
       </c>
@@ -40421,7 +40452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:32">
+    <row r="420" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>486</v>
       </c>
@@ -40510,7 +40541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:32">
+    <row r="421" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>487</v>
       </c>
@@ -40608,7 +40639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:32">
+    <row r="422" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>488</v>
       </c>
@@ -40697,7 +40728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:32">
+    <row r="423" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>490</v>
       </c>
@@ -40795,7 +40826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:32">
+    <row r="424" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>491</v>
       </c>
@@ -40884,7 +40915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:32">
+    <row r="425" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>492</v>
       </c>
@@ -40952,7 +40983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:32">
+    <row r="426" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>493</v>
       </c>
@@ -41050,7 +41081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:32">
+    <row r="427" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>494</v>
       </c>
@@ -41148,7 +41179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:32">
+    <row r="428" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>495</v>
       </c>
@@ -41237,7 +41268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:32">
+    <row r="429" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>496</v>
       </c>
@@ -41335,7 +41366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:32">
+    <row r="430" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>497</v>
       </c>
@@ -41424,7 +41455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:32">
+    <row r="431" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>498</v>
       </c>
@@ -41522,7 +41553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:32">
+    <row r="432" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>499</v>
       </c>
@@ -41599,7 +41630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:32">
+    <row r="433" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>500</v>
       </c>
@@ -41697,7 +41728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:32">
+    <row r="434" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>501</v>
       </c>
@@ -41795,7 +41826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:32">
+    <row r="435" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>502</v>
       </c>
@@ -41893,7 +41924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:32">
+    <row r="436" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>504</v>
       </c>
@@ -41991,7 +42022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:32">
+    <row r="437" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>505</v>
       </c>
@@ -42089,7 +42120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:32">
+    <row r="438" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>506</v>
       </c>
@@ -42187,7 +42218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:32">
+    <row r="439" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>507</v>
       </c>
@@ -42276,7 +42307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:32">
+    <row r="440" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>508</v>
       </c>
@@ -42365,7 +42396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:32">
+    <row r="441" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>509</v>
       </c>
@@ -42424,7 +42455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:32">
+    <row r="442" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>510</v>
       </c>
@@ -42513,7 +42544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:32">
+    <row r="443" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>511</v>
       </c>
@@ -42611,7 +42642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:32">
+    <row r="444" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>512</v>
       </c>
@@ -42700,7 +42731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:32">
+    <row r="445" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>513</v>
       </c>
@@ -42789,7 +42820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:32">
+    <row r="446" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>514</v>
       </c>
@@ -42854,7 +42885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:32">
+    <row r="447" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>515</v>
       </c>
@@ -42952,7 +42983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:32">
+    <row r="448" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>516</v>
       </c>
@@ -43005,7 +43036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:32">
+    <row r="449" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>517</v>
       </c>
@@ -43103,7 +43134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:32">
+    <row r="450" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>518</v>
       </c>
@@ -43201,7 +43232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:32">
+    <row r="451" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>519</v>
       </c>
@@ -43299,7 +43330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:32">
+    <row r="452" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>520</v>
       </c>
@@ -43397,7 +43428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:32">
+    <row r="453" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>521</v>
       </c>
@@ -43495,7 +43526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:32">
+    <row r="454" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>522</v>
       </c>
@@ -43593,7 +43624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:32">
+    <row r="455" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>523</v>
       </c>
@@ -43691,7 +43722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:32">
+    <row r="456" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>524</v>
       </c>
@@ -43786,7 +43817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:32">
+    <row r="457" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>525</v>
       </c>
@@ -43884,7 +43915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:32">
+    <row r="458" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>526</v>
       </c>
@@ -43982,7 +44013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:32">
+    <row r="459" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>527</v>
       </c>
@@ -44080,7 +44111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:32">
+    <row r="460" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>528</v>
       </c>
@@ -44178,7 +44209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:32">
+    <row r="461" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>529</v>
       </c>
@@ -44276,7 +44307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:32">
+    <row r="462" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>530</v>
       </c>
@@ -44365,7 +44396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:32">
+    <row r="463" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>507</v>
       </c>
@@ -44454,7 +44485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:32">
+    <row r="464" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>508</v>
       </c>
@@ -44543,7 +44574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:32">
+    <row r="465" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>509</v>
       </c>
@@ -44602,7 +44633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:32">
+    <row r="466" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>510</v>
       </c>
@@ -44691,7 +44722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:32">
+    <row r="467" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>511</v>
       </c>
@@ -44789,7 +44820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:32">
+    <row r="468" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>512</v>
       </c>
@@ -44878,7 +44909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:32">
+    <row r="469" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>514</v>
       </c>
@@ -44943,7 +44974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:32">
+    <row r="470" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>513</v>
       </c>
@@ -45032,7 +45063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:32">
+    <row r="471" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>515</v>
       </c>
@@ -45130,7 +45161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:32">
+    <row r="472" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>516</v>
       </c>
@@ -45183,7 +45214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:32">
+    <row r="473" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>517</v>
       </c>
@@ -45281,7 +45312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:32">
+    <row r="474" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>518</v>
       </c>
@@ -45379,7 +45410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:32">
+    <row r="475" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>519</v>
       </c>
@@ -45477,7 +45508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:32">
+    <row r="476" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>520</v>
       </c>
@@ -45575,7 +45606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:32">
+    <row r="477" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>521</v>
       </c>
@@ -45673,7 +45704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:32">
+    <row r="478" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>522</v>
       </c>
@@ -45771,7 +45802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:32">
+    <row r="479" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>523</v>
       </c>
@@ -45869,7 +45900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:32">
+    <row r="480" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>524</v>
       </c>
@@ -45964,7 +45995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:32">
+    <row r="481" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>525</v>
       </c>
@@ -46062,7 +46093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:32">
+    <row r="482" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>526</v>
       </c>
@@ -46160,7 +46191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:32">
+    <row r="483" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>527</v>
       </c>
@@ -46258,7 +46289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:32">
+    <row r="484" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>528</v>
       </c>
@@ -46368,14 +46399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
@@ -46410,7 +46441,7 @@
     <col min="31" max="31" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -46505,7 +46536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -46600,7 +46631,7 @@
         <v>11515369</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -46695,7 +46726,7 @@
         <v>87992859</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -46790,7 +46821,7 @@
         <v>11268675</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -46876,7 +46907,7 @@
         <v>11268772</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -46971,7 +47002,7 @@
         <v>11269232</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -47066,7 +47097,7 @@
         <v>11269762</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>360</v>
       </c>
@@ -47161,7 +47192,7 @@
         <v>11271007</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -47256,7 +47287,7 @@
         <v>11272814</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -47351,7 +47382,7 @@
         <v>11275726</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -47437,7 +47468,7 @@
         <v>11275845</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -47532,7 +47563,7 @@
         <v>11275863</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -47627,7 +47658,7 @@
         <v>11275883</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -47722,7 +47753,7 @@
         <v>11278275</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -47817,7 +47848,7 @@
         <v>11278543</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -47912,7 +47943,7 @@
         <v>11278709</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>239</v>
       </c>
@@ -48007,7 +48038,7 @@
         <v>11284239</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>489</v>
       </c>
@@ -48093,7 +48124,7 @@
         <v>11285514</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -48179,7 +48210,7 @@
         <v>11286374</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -48274,7 +48305,7 @@
         <v>11287065</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>261</v>
       </c>
@@ -48369,7 +48400,7 @@
         <v>11287283</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>261</v>
       </c>
@@ -48464,7 +48495,7 @@
         <v>11287313</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -48559,7 +48590,7 @@
         <v>11287486</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -48654,7 +48685,7 @@
         <v>11287530</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -48749,7 +48780,7 @@
         <v>11287542</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -48835,7 +48866,7 @@
         <v>11287734</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -48930,7 +48961,7 @@
         <v>11287738</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -49025,7 +49056,7 @@
         <v>11287763</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -49120,7 +49151,7 @@
         <v>11287805</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>261</v>
       </c>
@@ -49215,7 +49246,7 @@
         <v>11287810</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -49310,7 +49341,7 @@
         <v>11288145</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -49396,7 +49427,7 @@
         <v>11288436</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -49491,7 +49522,7 @@
         <v>11289423</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -49586,7 +49617,7 @@
         <v>11289426</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -49681,7 +49712,7 @@
         <v>11289690</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -49776,7 +49807,7 @@
         <v>11290004</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>241</v>
       </c>
@@ -49862,7 +49893,7 @@
         <v>11290108</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>241</v>
       </c>
@@ -49948,7 +49979,7 @@
         <v>11290111</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>241</v>
       </c>
@@ -50043,7 +50074,7 @@
         <v>11290342</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -50138,7 +50169,7 @@
         <v>11290476</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -50233,7 +50264,7 @@
         <v>11290548</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -50328,7 +50359,7 @@
         <v>11290620</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -50423,7 +50454,7 @@
         <v>11290680</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -50518,7 +50549,7 @@
         <v>11290824</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -50613,7 +50644,7 @@
         <v>11290879</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -50708,7 +50739,7 @@
         <v>11290953</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -50803,7 +50834,7 @@
         <v>11291140</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -50898,7 +50929,7 @@
         <v>11291141</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -50993,7 +51024,7 @@
         <v>11291338</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -51088,7 +51119,7 @@
         <v>11291504</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -51183,7 +51214,7 @@
         <v>11291647</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -51278,7 +51309,7 @@
         <v>11291660</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -51373,7 +51404,7 @@
         <v>11291792</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -51468,7 +51499,7 @@
         <v>11305552</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -51563,7 +51594,7 @@
         <v>11305671</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -51649,7 +51680,7 @@
         <v>11305812</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -51744,7 +51775,7 @@
         <v>11306132</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -51839,7 +51870,7 @@
         <v>11306299</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -51934,7 +51965,7 @@
         <v>11307454</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -52029,7 +52060,7 @@
         <v>11307704</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -52124,7 +52155,7 @@
         <v>11308218</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -52219,7 +52250,7 @@
         <v>11308677</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -52305,7 +52336,7 @@
         <v>11308743</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -52397,7 +52428,7 @@
         <v>11309180</v>
       </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -52492,7 +52523,7 @@
         <v>11314743</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>379</v>
       </c>
@@ -52587,7 +52618,7 @@
         <v>11316041</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -52682,7 +52713,7 @@
         <v>11323354</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -52777,7 +52808,7 @@
         <v>11323570</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -52872,7 +52903,7 @@
         <v>11323965</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>108</v>
       </c>
@@ -52967,7 +52998,7 @@
         <v>11324507</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>108</v>
       </c>
@@ -53053,7 +53084,7 @@
         <v>11324557</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>360</v>
       </c>
@@ -53139,7 +53170,7 @@
         <v>11327756</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>360</v>
       </c>
@@ -53225,7 +53256,7 @@
         <v>11327984</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -53320,7 +53351,7 @@
         <v>11335414</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -53412,7 +53443,7 @@
         <v>11335796</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -53507,7 +53538,7 @@
         <v>11335885</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>65</v>
       </c>
@@ -53593,7 +53624,7 @@
         <v>11335958</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -53688,7 +53719,7 @@
         <v>11341919</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>241</v>
       </c>
@@ -53783,7 +53814,7 @@
         <v>11345098</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -53869,7 +53900,7 @@
         <v>11346934</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -53961,7 +53992,7 @@
         <v>11351937</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -54056,7 +54087,7 @@
         <v>11352138</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>286</v>
       </c>
@@ -54142,7 +54173,7 @@
         <v>11352217</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -54237,7 +54268,7 @@
         <v>11355936</v>
       </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -54332,7 +54363,7 @@
         <v>11356104</v>
       </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -54427,7 +54458,7 @@
         <v>11362093</v>
       </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -54519,7 +54550,7 @@
         <v>11362144</v>
       </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -54605,7 +54636,7 @@
         <v>11362665</v>
       </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -54700,7 +54731,7 @@
         <v>11362727</v>
       </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -54786,7 +54817,7 @@
         <v>11363025</v>
       </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -54881,7 +54912,7 @@
         <v>11363088</v>
       </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>171</v>
       </c>
@@ -54976,7 +55007,7 @@
         <v>11363247</v>
       </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -55071,7 +55102,7 @@
         <v>11363312</v>
       </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -55166,7 +55197,7 @@
         <v>11363439</v>
       </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -55261,7 +55292,7 @@
         <v>11363447</v>
       </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -55347,7 +55378,7 @@
         <v>11363453</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -55439,7 +55470,7 @@
         <v>11363467</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -55525,7 +55556,7 @@
         <v>11366844</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>202</v>
       </c>
@@ -55620,7 +55651,7 @@
         <v>11367080</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>291</v>
       </c>
@@ -55715,7 +55746,7 @@
         <v>11368235</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>67</v>
       </c>
@@ -55801,7 +55832,7 @@
         <v>11371238</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -55887,7 +55918,7 @@
         <v>11376055</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>128</v>
       </c>
@@ -55982,7 +56013,7 @@
         <v>11376338</v>
       </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>147</v>
       </c>
@@ -56077,7 +56108,7 @@
         <v>11387300</v>
       </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>147</v>
       </c>
@@ -56172,7 +56203,7 @@
         <v>11387342</v>
       </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -56258,7 +56289,7 @@
         <v>11387527</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -56353,7 +56384,7 @@
         <v>11387587</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -56448,7 +56479,7 @@
         <v>11387675</v>
       </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -56543,7 +56574,7 @@
         <v>11387986</v>
       </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -56629,7 +56660,7 @@
         <v>11388193</v>
       </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -56724,7 +56755,7 @@
         <v>11388240</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>503</v>
       </c>
@@ -56819,7 +56850,7 @@
         <v>11388914</v>
       </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>209</v>
       </c>
@@ -56905,7 +56936,7 @@
         <v>11394458</v>
       </c>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>106</v>
       </c>
@@ -57000,7 +57031,7 @@
         <v>11395482</v>
       </c>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>503</v>
       </c>
@@ -57095,7 +57126,7 @@
         <v>11395496</v>
       </c>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -57190,7 +57221,7 @@
         <v>11400336</v>
       </c>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -57285,7 +57316,7 @@
         <v>11403310</v>
       </c>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>162</v>
       </c>
@@ -57380,7 +57411,7 @@
         <v>11403552</v>
       </c>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>162</v>
       </c>
@@ -57466,7 +57497,7 @@
         <v>11407301</v>
       </c>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>90</v>
       </c>
@@ -57561,7 +57592,7 @@
         <v>11407517</v>
       </c>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -57656,7 +57687,7 @@
         <v>11407518</v>
       </c>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>90</v>
       </c>
@@ -57751,7 +57782,7 @@
         <v>11407580</v>
       </c>
     </row>
-    <row r="123" spans="1:31">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -57837,7 +57868,7 @@
         <v>11407587</v>
       </c>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>90</v>
       </c>
@@ -57932,7 +57963,7 @@
         <v>11407728</v>
       </c>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>90</v>
       </c>
@@ -58027,7 +58058,7 @@
         <v>11407757</v>
       </c>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>90</v>
       </c>
@@ -58122,7 +58153,7 @@
         <v>11407783</v>
       </c>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -58208,7 +58239,7 @@
         <v>11413317</v>
       </c>
     </row>
-    <row r="128" spans="1:31">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -58291,7 +58322,7 @@
         <v>11413476</v>
       </c>
     </row>
-    <row r="129" spans="1:31">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -58386,7 +58417,7 @@
         <v>11420093</v>
       </c>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -58481,7 +58512,7 @@
         <v>11420227</v>
       </c>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>171</v>
       </c>
@@ -58576,7 +58607,7 @@
         <v>11420456</v>
       </c>
     </row>
-    <row r="132" spans="1:31">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>54</v>
       </c>
@@ -58662,7 +58693,7 @@
         <v>11435392</v>
       </c>
     </row>
-    <row r="133" spans="1:31">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>379</v>
       </c>
@@ -58757,7 +58788,7 @@
         <v>11435567</v>
       </c>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>303</v>
       </c>
@@ -58852,7 +58883,7 @@
         <v>11436183</v>
       </c>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>379</v>
       </c>
@@ -58947,7 +58978,7 @@
         <v>11436442</v>
       </c>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>303</v>
       </c>
@@ -59042,7 +59073,7 @@
         <v>11436913</v>
       </c>
     </row>
-    <row r="137" spans="1:31">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>65</v>
       </c>
@@ -59137,7 +59168,7 @@
         <v>11439937</v>
       </c>
     </row>
-    <row r="138" spans="1:31">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>92</v>
       </c>
@@ -59223,7 +59254,7 @@
         <v>11440504</v>
       </c>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>65</v>
       </c>
@@ -59318,7 +59349,7 @@
         <v>11444763</v>
       </c>
     </row>
-    <row r="140" spans="1:31">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>65</v>
       </c>
@@ -59413,7 +59444,7 @@
         <v>11445234</v>
       </c>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -59508,7 +59539,7 @@
         <v>11445256</v>
       </c>
     </row>
-    <row r="142" spans="1:31">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>65</v>
       </c>
@@ -59603,7 +59634,7 @@
         <v>11445526</v>
       </c>
     </row>
-    <row r="143" spans="1:31">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>65</v>
       </c>
@@ -59695,7 +59726,7 @@
         <v>11445566</v>
       </c>
     </row>
-    <row r="144" spans="1:31">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>65</v>
       </c>
@@ -59790,7 +59821,7 @@
         <v>11445701</v>
       </c>
     </row>
-    <row r="145" spans="1:31">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>65</v>
       </c>
@@ -59876,7 +59907,7 @@
         <v>11446107</v>
       </c>
     </row>
-    <row r="146" spans="1:31">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>92</v>
       </c>
@@ -59971,7 +60002,7 @@
         <v>11446315</v>
       </c>
     </row>
-    <row r="147" spans="1:31">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>62</v>
       </c>
@@ -60066,7 +60097,7 @@
         <v>11452910</v>
       </c>
     </row>
-    <row r="148" spans="1:31">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>62</v>
       </c>
@@ -60161,7 +60192,7 @@
         <v>11452948</v>
       </c>
     </row>
-    <row r="149" spans="1:31">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>62</v>
       </c>
@@ -60256,7 +60287,7 @@
         <v>11453173</v>
       </c>
     </row>
-    <row r="150" spans="1:31">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>62</v>
       </c>
@@ -60342,7 +60373,7 @@
         <v>11453187</v>
       </c>
     </row>
-    <row r="151" spans="1:31">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>62</v>
       </c>
@@ -60428,7 +60459,7 @@
         <v>11453300</v>
       </c>
     </row>
-    <row r="152" spans="1:31">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>62</v>
       </c>
@@ -60523,7 +60554,7 @@
         <v>11453441</v>
       </c>
     </row>
-    <row r="153" spans="1:31">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>298</v>
       </c>
@@ -60618,7 +60649,7 @@
         <v>11473780</v>
       </c>
     </row>
-    <row r="154" spans="1:31">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -60713,7 +60744,7 @@
         <v>11474210</v>
       </c>
     </row>
-    <row r="155" spans="1:31">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>133</v>
       </c>
@@ -60808,7 +60839,7 @@
         <v>11475164</v>
       </c>
     </row>
-    <row r="156" spans="1:31">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>207</v>
       </c>
@@ -60903,7 +60934,7 @@
         <v>11475972</v>
       </c>
     </row>
-    <row r="157" spans="1:31">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>207</v>
       </c>
@@ -60998,7 +61029,7 @@
         <v>11479164</v>
       </c>
     </row>
-    <row r="158" spans="1:31">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>67</v>
       </c>
@@ -61093,7 +61124,7 @@
         <v>11482784</v>
       </c>
     </row>
-    <row r="159" spans="1:31">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>67</v>
       </c>
@@ -61188,7 +61219,7 @@
         <v>11483265</v>
       </c>
     </row>
-    <row r="160" spans="1:31">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>67</v>
       </c>
@@ -61283,7 +61314,7 @@
         <v>11483302</v>
       </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>67</v>
       </c>
@@ -61375,7 +61406,7 @@
         <v>11483507</v>
       </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>67</v>
       </c>
@@ -61470,7 +61501,7 @@
         <v>11483684</v>
       </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>67</v>
       </c>
@@ -61565,7 +61596,7 @@
         <v>11483775</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>96</v>
       </c>
@@ -61660,7 +61691,7 @@
         <v>11498290</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>96</v>
       </c>
@@ -61755,7 +61786,7 @@
         <v>11498696</v>
       </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>147</v>
       </c>
@@ -61850,7 +61881,7 @@
         <v>11498825</v>
       </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>481</v>
       </c>
@@ -61945,7 +61976,7 @@
         <v>11499368</v>
       </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>147</v>
       </c>
@@ -62040,7 +62071,7 @@
         <v>11505429</v>
       </c>
     </row>
-    <row r="169" spans="1:31">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>147</v>
       </c>
@@ -62135,7 +62166,7 @@
         <v>11505838</v>
       </c>
     </row>
-    <row r="170" spans="1:31">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>103</v>
       </c>
@@ -62230,7 +62261,7 @@
         <v>11506252</v>
       </c>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>355</v>
       </c>
@@ -62325,7 +62356,7 @@
         <v>11511235</v>
       </c>
     </row>
-    <row r="172" spans="1:31">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -62420,7 +62451,7 @@
         <v>11511793</v>
       </c>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>106</v>
       </c>
@@ -62515,7 +62546,7 @@
         <v>11512076</v>
       </c>
     </row>
-    <row r="174" spans="1:31">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>57</v>
       </c>
@@ -62610,7 +62641,7 @@
         <v>11512846</v>
       </c>
     </row>
-    <row r="175" spans="1:31">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>57</v>
       </c>
@@ -62705,7 +62736,7 @@
         <v>11512903</v>
       </c>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>57</v>
       </c>
@@ -62800,7 +62831,7 @@
         <v>11513601</v>
       </c>
     </row>
-    <row r="177" spans="1:31">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>57</v>
       </c>
@@ -62895,7 +62926,7 @@
         <v>11513647</v>
       </c>
     </row>
-    <row r="178" spans="1:31">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>57</v>
       </c>
@@ -62981,7 +63012,7 @@
         <v>11514143</v>
       </c>
     </row>
-    <row r="179" spans="1:31">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>295</v>
       </c>
@@ -63076,7 +63107,7 @@
         <v>11514617</v>
       </c>
     </row>
-    <row r="180" spans="1:31">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>295</v>
       </c>
@@ -63171,7 +63202,7 @@
         <v>11514734</v>
       </c>
     </row>
-    <row r="181" spans="1:31">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>136</v>
       </c>
@@ -63266,7 +63297,7 @@
         <v>11514810</v>
       </c>
     </row>
-    <row r="182" spans="1:31">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>136</v>
       </c>
@@ -63361,7 +63392,7 @@
         <v>11514905</v>
       </c>
     </row>
-    <row r="183" spans="1:31">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -63456,7 +63487,7 @@
         <v>11515518</v>
       </c>
     </row>
-    <row r="184" spans="1:31">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>37</v>
       </c>
@@ -63551,7 +63582,7 @@
         <v>11515530</v>
       </c>
     </row>
-    <row r="185" spans="1:31">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>37</v>
       </c>
@@ -63646,7 +63677,7 @@
         <v>11515591</v>
       </c>
     </row>
-    <row r="186" spans="1:31">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>37</v>
       </c>
@@ -63741,7 +63772,7 @@
         <v>11515913</v>
       </c>
     </row>
-    <row r="187" spans="1:31">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>37</v>
       </c>
@@ -63836,7 +63867,7 @@
         <v>11516249</v>
       </c>
     </row>
-    <row r="188" spans="1:31">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>37</v>
       </c>
@@ -63931,7 +63962,7 @@
         <v>11517027</v>
       </c>
     </row>
-    <row r="189" spans="1:31">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>144</v>
       </c>
@@ -64026,7 +64057,7 @@
         <v>11520558</v>
       </c>
     </row>
-    <row r="190" spans="1:31">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>136</v>
       </c>
@@ -64121,7 +64152,7 @@
         <v>11524321</v>
       </c>
     </row>
-    <row r="191" spans="1:31">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>136</v>
       </c>
@@ -64213,7 +64244,7 @@
         <v>11524380</v>
       </c>
     </row>
-    <row r="192" spans="1:31">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>136</v>
       </c>
@@ -64308,7 +64339,7 @@
         <v>11524485</v>
       </c>
     </row>
-    <row r="193" spans="1:31">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>136</v>
       </c>
@@ -64394,7 +64425,7 @@
         <v>11524967</v>
       </c>
     </row>
-    <row r="194" spans="1:31">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>46</v>
       </c>
@@ -64489,7 +64520,7 @@
         <v>11525166</v>
       </c>
     </row>
-    <row r="195" spans="1:31">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>46</v>
       </c>
@@ -64584,7 +64615,7 @@
         <v>11525225</v>
       </c>
     </row>
-    <row r="196" spans="1:31">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>46</v>
       </c>
@@ -64679,7 +64710,7 @@
         <v>11528231</v>
       </c>
     </row>
-    <row r="197" spans="1:31">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>46</v>
       </c>
@@ -64765,7 +64796,7 @@
         <v>11528318</v>
       </c>
     </row>
-    <row r="198" spans="1:31">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>46</v>
       </c>
@@ -64860,7 +64891,7 @@
         <v>11528331</v>
       </c>
     </row>
-    <row r="199" spans="1:31">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -64955,7 +64986,7 @@
         <v>11528521</v>
       </c>
     </row>
-    <row r="200" spans="1:31">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>46</v>
       </c>
@@ -65050,7 +65081,7 @@
         <v>11528551</v>
       </c>
     </row>
-    <row r="201" spans="1:31">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>46</v>
       </c>
@@ -65145,7 +65176,7 @@
         <v>11528772</v>
       </c>
     </row>
-    <row r="202" spans="1:31">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>46</v>
       </c>
@@ -65240,7 +65271,7 @@
         <v>11528792</v>
       </c>
     </row>
-    <row r="203" spans="1:31">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>90</v>
       </c>
@@ -65335,7 +65366,7 @@
         <v>11528996</v>
       </c>
     </row>
-    <row r="204" spans="1:31">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>90</v>
       </c>
@@ -65430,7 +65461,7 @@
         <v>11529053</v>
       </c>
     </row>
-    <row r="205" spans="1:31">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>46</v>
       </c>
@@ -65516,7 +65547,7 @@
         <v>11529197</v>
       </c>
     </row>
-    <row r="206" spans="1:31">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>46</v>
       </c>
@@ -65611,7 +65642,7 @@
         <v>11529355</v>
       </c>
     </row>
-    <row r="207" spans="1:31">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>76</v>
       </c>
@@ -65706,7 +65737,7 @@
         <v>11529694</v>
       </c>
     </row>
-    <row r="208" spans="1:31">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>76</v>
       </c>
@@ -65801,7 +65832,7 @@
         <v>11533891</v>
       </c>
     </row>
-    <row r="209" spans="1:31">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>76</v>
       </c>
@@ -65896,7 +65927,7 @@
         <v>11533992</v>
       </c>
     </row>
-    <row r="210" spans="1:31">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>76</v>
       </c>
@@ -65991,7 +66022,7 @@
         <v>11534068</v>
       </c>
     </row>
-    <row r="211" spans="1:31">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>94</v>
       </c>
@@ -66086,7 +66117,7 @@
         <v>11539702</v>
       </c>
     </row>
-    <row r="212" spans="1:31">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>94</v>
       </c>
@@ -66181,7 +66212,7 @@
         <v>11539892</v>
       </c>
     </row>
-    <row r="213" spans="1:31">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>94</v>
       </c>
@@ -66276,7 +66307,7 @@
         <v>11539905</v>
       </c>
     </row>
-    <row r="214" spans="1:31">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>94</v>
       </c>
@@ -66371,7 +66402,7 @@
         <v>11540170</v>
       </c>
     </row>
-    <row r="215" spans="1:31">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>94</v>
       </c>
@@ -66466,7 +66497,7 @@
         <v>11540346</v>
       </c>
     </row>
-    <row r="216" spans="1:31">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>94</v>
       </c>
@@ -66552,7 +66583,7 @@
         <v>11545092</v>
       </c>
     </row>
-    <row r="217" spans="1:31">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>94</v>
       </c>
@@ -66647,7 +66678,7 @@
         <v>11545228</v>
       </c>
     </row>
-    <row r="218" spans="1:31">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>71</v>
       </c>
@@ -66742,7 +66773,7 @@
         <v>11545383</v>
       </c>
     </row>
-    <row r="219" spans="1:31">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>71</v>
       </c>
@@ -66828,7 +66859,7 @@
         <v>11545430</v>
       </c>
     </row>
-    <row r="220" spans="1:31">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>71</v>
       </c>
@@ -66923,7 +66954,7 @@
         <v>11545456</v>
       </c>
     </row>
-    <row r="221" spans="1:31">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>71</v>
       </c>
@@ -67018,7 +67049,7 @@
         <v>11545510</v>
       </c>
     </row>
-    <row r="222" spans="1:31">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>71</v>
       </c>
@@ -67104,7 +67135,7 @@
         <v>11550895</v>
       </c>
     </row>
-    <row r="223" spans="1:31">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>54</v>
       </c>
@@ -67190,7 +67221,7 @@
         <v>11554105</v>
       </c>
     </row>
-    <row r="224" spans="1:31">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>50</v>
       </c>
@@ -67285,7 +67316,7 @@
         <v>11554624</v>
       </c>
     </row>
-    <row r="225" spans="1:31">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>50</v>
       </c>
@@ -67380,7 +67411,7 @@
         <v>11554676</v>
       </c>
     </row>
-    <row r="226" spans="1:31">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>54</v>
       </c>
@@ -67475,7 +67506,7 @@
         <v>11556504</v>
       </c>
     </row>
-    <row r="227" spans="1:31">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>54</v>
       </c>
@@ -67570,7 +67601,7 @@
         <v>11556827</v>
       </c>
     </row>
-    <row r="228" spans="1:31">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>54</v>
       </c>
@@ -67665,7 +67696,7 @@
         <v>11556930</v>
       </c>
     </row>
-    <row r="229" spans="1:31">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>54</v>
       </c>
@@ -67760,7 +67791,7 @@
         <v>11556982</v>
       </c>
     </row>
-    <row r="230" spans="1:31">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>54</v>
       </c>
@@ -67855,7 +67886,7 @@
         <v>11557361</v>
       </c>
     </row>
-    <row r="231" spans="1:31">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>92</v>
       </c>
@@ -67941,7 +67972,7 @@
         <v>11562057</v>
       </c>
     </row>
-    <row r="232" spans="1:31">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>92</v>
       </c>
@@ -68036,7 +68067,7 @@
         <v>11562065</v>
       </c>
     </row>
-    <row r="233" spans="1:31">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>92</v>
       </c>
@@ -68131,7 +68162,7 @@
         <v>11562146</v>
       </c>
     </row>
-    <row r="234" spans="1:31">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>92</v>
       </c>
@@ -68217,7 +68248,7 @@
         <v>11562563</v>
       </c>
     </row>
-    <row r="235" spans="1:31">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>65</v>
       </c>
@@ -68312,7 +68343,7 @@
         <v>11565298</v>
       </c>
     </row>
-    <row r="236" spans="1:31">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>92</v>
       </c>
@@ -68407,7 +68438,7 @@
         <v>11565893</v>
       </c>
     </row>
-    <row r="237" spans="1:31">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>92</v>
       </c>
@@ -68502,7 +68533,7 @@
         <v>11566247</v>
       </c>
     </row>
-    <row r="238" spans="1:31">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>92</v>
       </c>
@@ -68597,7 +68628,7 @@
         <v>11566717</v>
       </c>
     </row>
-    <row r="239" spans="1:31">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>92</v>
       </c>
@@ -68692,7 +68723,7 @@
         <v>11566745</v>
       </c>
     </row>
-    <row r="240" spans="1:31">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>62</v>
       </c>
@@ -68778,7 +68809,7 @@
         <v>11570430</v>
       </c>
     </row>
-    <row r="241" spans="1:31">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>62</v>
       </c>
@@ -68873,7 +68904,7 @@
         <v>11570643</v>
       </c>
     </row>
-    <row r="242" spans="1:31">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>50</v>
       </c>
@@ -68968,7 +68999,7 @@
         <v>11585170</v>
       </c>
     </row>
-    <row r="243" spans="1:31">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>50</v>
       </c>
@@ -69063,7 +69094,7 @@
         <v>11585516</v>
       </c>
     </row>
-    <row r="244" spans="1:31">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>50</v>
       </c>
@@ -69158,7 +69189,7 @@
         <v>11585591</v>
       </c>
     </row>
-    <row r="245" spans="1:31">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>37</v>
       </c>
@@ -69244,7 +69275,7 @@
         <v>11586281</v>
       </c>
     </row>
-    <row r="246" spans="1:31">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>39</v>
       </c>
@@ -69339,7 +69370,7 @@
         <v>11592199</v>
       </c>
     </row>
-    <row r="247" spans="1:31">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -69425,7 +69456,7 @@
         <v>11592322</v>
       </c>
     </row>
-    <row r="248" spans="1:31">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>35</v>
       </c>
@@ -69511,7 +69542,7 @@
         <v>11592452</v>
       </c>
     </row>
-    <row r="249" spans="1:31">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>39</v>
       </c>
@@ -69597,7 +69628,7 @@
         <v>11592488</v>
       </c>
     </row>
-    <row r="250" spans="1:31">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>39</v>
       </c>
@@ -69692,7 +69723,7 @@
         <v>11592495</v>
       </c>
     </row>
-    <row r="251" spans="1:31">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -69787,7 +69818,7 @@
         <v>11592640</v>
       </c>
     </row>
-    <row r="252" spans="1:31">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>99</v>
       </c>
@@ -69882,7 +69913,7 @@
         <v>11603511</v>
       </c>
     </row>
-    <row r="253" spans="1:31">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>99</v>
       </c>
@@ -69977,7 +70008,7 @@
         <v>11603683</v>
       </c>
     </row>
-    <row r="254" spans="1:31">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>99</v>
       </c>
@@ -70072,7 +70103,7 @@
         <v>11603720</v>
       </c>
     </row>
-    <row r="255" spans="1:31">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>99</v>
       </c>
@@ -70167,7 +70198,7 @@
         <v>11603781</v>
       </c>
     </row>
-    <row r="256" spans="1:31">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>99</v>
       </c>
@@ -70253,7 +70284,7 @@
         <v>11603886</v>
       </c>
     </row>
-    <row r="257" spans="1:31">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>99</v>
       </c>
@@ -70345,7 +70376,7 @@
         <v>11603915</v>
       </c>
     </row>
-    <row r="258" spans="1:31">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>99</v>
       </c>
@@ -70431,7 +70462,7 @@
         <v>11605774</v>
       </c>
     </row>
-    <row r="259" spans="1:31">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>96</v>
       </c>
@@ -70526,7 +70557,7 @@
         <v>11605934</v>
       </c>
     </row>
-    <row r="260" spans="1:31">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>96</v>
       </c>
@@ -70621,7 +70652,7 @@
         <v>11606120</v>
       </c>
     </row>
-    <row r="261" spans="1:31">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>96</v>
       </c>
@@ -70716,7 +70747,7 @@
         <v>11606390</v>
       </c>
     </row>
-    <row r="262" spans="1:31">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>360</v>
       </c>
@@ -70811,7 +70842,7 @@
         <v>11609812</v>
       </c>
     </row>
-    <row r="263" spans="1:31">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>130</v>
       </c>
@@ -70897,7 +70928,7 @@
         <v>11612514</v>
       </c>
     </row>
-    <row r="264" spans="1:31">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>130</v>
       </c>
@@ -70992,7 +71023,7 @@
         <v>11612810</v>
       </c>
     </row>
-    <row r="265" spans="1:31">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>57</v>
       </c>
@@ -71078,7 +71109,7 @@
         <v>11613174</v>
       </c>
     </row>
-    <row r="266" spans="1:31">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>57</v>
       </c>
@@ -71173,7 +71204,7 @@
         <v>11613397</v>
       </c>
     </row>
-    <row r="267" spans="1:31">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>85</v>
       </c>
@@ -71268,7 +71299,7 @@
         <v>11615250</v>
       </c>
     </row>
-    <row r="268" spans="1:31">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>85</v>
       </c>
@@ -71363,7 +71394,7 @@
         <v>11615370</v>
       </c>
     </row>
-    <row r="269" spans="1:31">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>187</v>
       </c>
@@ -71458,7 +71489,7 @@
         <v>11619447</v>
       </c>
     </row>
-    <row r="270" spans="1:31">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>187</v>
       </c>
@@ -71544,7 +71575,7 @@
         <v>11619455</v>
       </c>
     </row>
-    <row r="271" spans="1:31">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>187</v>
       </c>
@@ -71639,7 +71670,7 @@
         <v>11619654</v>
       </c>
     </row>
-    <row r="272" spans="1:31">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>239</v>
       </c>
@@ -71734,7 +71765,7 @@
         <v>11620057</v>
       </c>
     </row>
-    <row r="273" spans="1:31">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>85</v>
       </c>
@@ -71829,7 +71860,7 @@
         <v>11620222</v>
       </c>
     </row>
-    <row r="274" spans="1:31">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>239</v>
       </c>
@@ -71924,7 +71955,7 @@
         <v>11620271</v>
       </c>
     </row>
-    <row r="275" spans="1:31">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>239</v>
       </c>
@@ -72019,7 +72050,7 @@
         <v>11620486</v>
       </c>
     </row>
-    <row r="276" spans="1:31">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>187</v>
       </c>
@@ -72114,7 +72145,7 @@
         <v>11620606</v>
       </c>
     </row>
-    <row r="277" spans="1:31">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>239</v>
       </c>
@@ -72209,7 +72240,7 @@
         <v>11620971</v>
       </c>
     </row>
-    <row r="278" spans="1:31">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>239</v>
       </c>
@@ -72304,7 +72335,7 @@
         <v>11620985</v>
       </c>
     </row>
-    <row r="279" spans="1:31">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>239</v>
       </c>
@@ -72399,7 +72430,7 @@
         <v>11622443</v>
       </c>
     </row>
-    <row r="280" spans="1:31">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>110</v>
       </c>
@@ -72494,7 +72525,7 @@
         <v>11622484</v>
       </c>
     </row>
-    <row r="281" spans="1:31">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>239</v>
       </c>
@@ -72589,7 +72620,7 @@
         <v>11622551</v>
       </c>
     </row>
-    <row r="282" spans="1:31">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>110</v>
       </c>
@@ -72675,7 +72706,7 @@
         <v>11622821</v>
       </c>
     </row>
-    <row r="283" spans="1:31">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>110</v>
       </c>
@@ -72770,7 +72801,7 @@
         <v>11622858</v>
       </c>
     </row>
-    <row r="284" spans="1:31">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>110</v>
       </c>
@@ -72865,7 +72896,7 @@
         <v>11622941</v>
       </c>
     </row>
-    <row r="285" spans="1:31">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>110</v>
       </c>
@@ -72960,7 +72991,7 @@
         <v>11623008</v>
       </c>
     </row>
-    <row r="286" spans="1:31">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>46</v>
       </c>
@@ -73055,7 +73086,7 @@
         <v>11624880</v>
       </c>
     </row>
-    <row r="287" spans="1:31">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>46</v>
       </c>
@@ -73150,7 +73181,7 @@
         <v>11624992</v>
       </c>
     </row>
-    <row r="288" spans="1:31">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>46</v>
       </c>
@@ -73245,7 +73276,7 @@
         <v>11625070</v>
       </c>
     </row>
-    <row r="289" spans="1:31">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>46</v>
       </c>
@@ -73340,7 +73371,7 @@
         <v>11625259</v>
       </c>
     </row>
-    <row r="290" spans="1:31">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>46</v>
       </c>
@@ -73435,7 +73466,7 @@
         <v>11625282</v>
       </c>
     </row>
-    <row r="291" spans="1:31">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>46</v>
       </c>
@@ -73530,7 +73561,7 @@
         <v>11625326</v>
       </c>
     </row>
-    <row r="292" spans="1:31">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>46</v>
       </c>
@@ -73625,7 +73656,7 @@
         <v>11625410</v>
       </c>
     </row>
-    <row r="293" spans="1:31">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>46</v>
       </c>
@@ -73711,7 +73742,7 @@
         <v>11625437</v>
       </c>
     </row>
-    <row r="294" spans="1:31">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>46</v>
       </c>
@@ -73806,7 +73837,7 @@
         <v>11625531</v>
       </c>
     </row>
-    <row r="295" spans="1:31">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>46</v>
       </c>
@@ -73901,7 +73932,7 @@
         <v>11628585</v>
       </c>
     </row>
-    <row r="296" spans="1:31">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>46</v>
       </c>
@@ -73996,7 +74027,7 @@
         <v>11628808</v>
       </c>
     </row>
-    <row r="297" spans="1:31">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>46</v>
       </c>
@@ -74091,7 +74122,7 @@
         <v>11628940</v>
       </c>
     </row>
-    <row r="298" spans="1:31">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>46</v>
       </c>
@@ -74186,7 +74217,7 @@
         <v>11628947</v>
       </c>
     </row>
-    <row r="299" spans="1:31">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>76</v>
       </c>
@@ -74281,7 +74312,7 @@
         <v>11628986</v>
       </c>
     </row>
-    <row r="300" spans="1:31">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>76</v>
       </c>
@@ -74376,7 +74407,7 @@
         <v>11629014</v>
       </c>
     </row>
-    <row r="301" spans="1:31">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>76</v>
       </c>
@@ -74471,7 +74502,7 @@
         <v>11629018</v>
       </c>
     </row>
-    <row r="302" spans="1:31">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>52</v>
       </c>
@@ -74566,7 +74597,7 @@
         <v>11629051</v>
       </c>
     </row>
-    <row r="303" spans="1:31">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>76</v>
       </c>
@@ -74661,7 +74692,7 @@
         <v>11629175</v>
       </c>
     </row>
-    <row r="304" spans="1:31">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>76</v>
       </c>
@@ -74756,7 +74787,7 @@
         <v>11629192</v>
       </c>
     </row>
-    <row r="305" spans="1:31">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>76</v>
       </c>
@@ -74851,7 +74882,7 @@
         <v>11629347</v>
       </c>
     </row>
-    <row r="306" spans="1:31">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>52</v>
       </c>
@@ -74946,7 +74977,7 @@
         <v>11629596</v>
       </c>
     </row>
-    <row r="307" spans="1:31">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>76</v>
       </c>
@@ -75041,7 +75072,7 @@
         <v>11629708</v>
       </c>
     </row>
-    <row r="308" spans="1:31">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>76</v>
       </c>
@@ -75136,7 +75167,7 @@
         <v>11630523</v>
       </c>
     </row>
-    <row r="309" spans="1:31">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>76</v>
       </c>
@@ -75231,7 +75262,7 @@
         <v>11630638</v>
       </c>
     </row>
-    <row r="310" spans="1:31">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>76</v>
       </c>
@@ -75317,7 +75348,7 @@
         <v>11630731</v>
       </c>
     </row>
-    <row r="311" spans="1:31">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>76</v>
       </c>
@@ -75403,7 +75434,7 @@
         <v>11630755</v>
       </c>
     </row>
-    <row r="312" spans="1:31">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>76</v>
       </c>
@@ -75498,7 +75529,7 @@
         <v>11630824</v>
       </c>
     </row>
-    <row r="313" spans="1:31">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>76</v>
       </c>
@@ -75593,7 +75624,7 @@
         <v>11630840</v>
       </c>
     </row>
-    <row r="314" spans="1:31">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>76</v>
       </c>
@@ -75688,7 +75719,7 @@
         <v>11630876</v>
       </c>
     </row>
-    <row r="315" spans="1:31">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>76</v>
       </c>
@@ -75783,7 +75814,7 @@
         <v>11630934</v>
       </c>
     </row>
-    <row r="316" spans="1:31">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -75878,7 +75909,7 @@
         <v>11630958</v>
       </c>
     </row>
-    <row r="317" spans="1:31">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>76</v>
       </c>
@@ -75973,7 +76004,7 @@
         <v>11631252</v>
       </c>
     </row>
-    <row r="318" spans="1:31">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>44</v>
       </c>
@@ -76068,7 +76099,7 @@
         <v>11631703</v>
       </c>
     </row>
-    <row r="319" spans="1:31">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>44</v>
       </c>
@@ -76154,7 +76185,7 @@
         <v>11631792</v>
       </c>
     </row>
-    <row r="320" spans="1:31">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>44</v>
       </c>
@@ -76249,7 +76280,7 @@
         <v>11634908</v>
       </c>
     </row>
-    <row r="321" spans="1:31">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>44</v>
       </c>
@@ -76335,7 +76366,7 @@
         <v>11635025</v>
       </c>
     </row>
-    <row r="322" spans="1:31">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>44</v>
       </c>
@@ -76427,7 +76458,7 @@
         <v>11635060</v>
       </c>
     </row>
-    <row r="323" spans="1:31">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>94</v>
       </c>
@@ -76522,7 +76553,7 @@
         <v>11635607</v>
       </c>
     </row>
-    <row r="324" spans="1:31">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>44</v>
       </c>
@@ -76617,7 +76648,7 @@
         <v>11635899</v>
       </c>
     </row>
-    <row r="325" spans="1:31">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>44</v>
       </c>
@@ -76712,7 +76743,7 @@
         <v>11635916</v>
       </c>
     </row>
-    <row r="326" spans="1:31">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>44</v>
       </c>
@@ -76807,7 +76838,7 @@
         <v>11636406</v>
       </c>
     </row>
-    <row r="327" spans="1:31">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>94</v>
       </c>
@@ -76899,7 +76930,7 @@
         <v>11636459</v>
       </c>
     </row>
-    <row r="328" spans="1:31">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>44</v>
       </c>
@@ -76994,7 +77025,7 @@
         <v>11636608</v>
       </c>
     </row>
-    <row r="329" spans="1:31">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>44</v>
       </c>
@@ -77080,7 +77111,7 @@
         <v>11636691</v>
       </c>
     </row>
-    <row r="330" spans="1:31">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>44</v>
       </c>
@@ -77175,7 +77206,7 @@
         <v>11636732</v>
       </c>
     </row>
-    <row r="331" spans="1:31">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>94</v>
       </c>
@@ -77270,7 +77301,7 @@
         <v>11639417</v>
       </c>
     </row>
-    <row r="332" spans="1:31">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>44</v>
       </c>
@@ -77365,7 +77396,7 @@
         <v>11639483</v>
       </c>
     </row>
-    <row r="333" spans="1:31">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>44</v>
       </c>
@@ -77460,7 +77491,7 @@
         <v>11639662</v>
       </c>
     </row>
-    <row r="334" spans="1:31">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>44</v>
       </c>
@@ -77555,7 +77586,7 @@
         <v>11639993</v>
       </c>
     </row>
-    <row r="335" spans="1:31">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>54</v>
       </c>
@@ -77641,7 +77672,7 @@
         <v>11644930</v>
       </c>
     </row>
-    <row r="336" spans="1:31">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>54</v>
       </c>
@@ -77727,7 +77758,7 @@
         <v>11645174</v>
       </c>
     </row>
-    <row r="337" spans="1:31">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>54</v>
       </c>
@@ -77822,7 +77853,7 @@
         <v>11645736</v>
       </c>
     </row>
-    <row r="338" spans="1:31">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>54</v>
       </c>
@@ -77917,7 +77948,7 @@
         <v>11645840</v>
       </c>
     </row>
-    <row r="339" spans="1:31">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>120</v>
       </c>
@@ -78012,7 +78043,7 @@
         <v>11647431</v>
       </c>
     </row>
-    <row r="340" spans="1:31">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>54</v>
       </c>
@@ -78107,7 +78138,7 @@
         <v>11647622</v>
       </c>
     </row>
-    <row r="341" spans="1:31">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>120</v>
       </c>
@@ -78193,7 +78224,7 @@
         <v>11648085</v>
       </c>
     </row>
-    <row r="342" spans="1:31">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>92</v>
       </c>
@@ -78288,7 +78319,7 @@
         <v>11648906</v>
       </c>
     </row>
-    <row r="343" spans="1:31">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>92</v>
       </c>
@@ -78383,7 +78414,7 @@
         <v>11649076</v>
       </c>
     </row>
-    <row r="344" spans="1:31">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>92</v>
       </c>
@@ -78478,7 +78509,7 @@
         <v>11649099</v>
       </c>
     </row>
-    <row r="345" spans="1:31">
+    <row r="345" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>92</v>
       </c>
@@ -78573,7 +78604,7 @@
         <v>11649142</v>
       </c>
     </row>
-    <row r="346" spans="1:31">
+    <row r="346" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>92</v>
       </c>
@@ -78668,7 +78699,7 @@
         <v>11650023</v>
       </c>
     </row>
-    <row r="347" spans="1:31">
+    <row r="347" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>92</v>
       </c>
@@ -78763,7 +78794,7 @@
         <v>11650289</v>
       </c>
     </row>
-    <row r="348" spans="1:31">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>92</v>
       </c>
@@ -78858,7 +78889,7 @@
         <v>11652712</v>
       </c>
     </row>
-    <row r="349" spans="1:31">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>92</v>
       </c>
@@ -78953,7 +78984,7 @@
         <v>11652775</v>
       </c>
     </row>
-    <row r="350" spans="1:31">
+    <row r="350" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>92</v>
       </c>
@@ -79048,7 +79079,7 @@
         <v>11653026</v>
       </c>
     </row>
-    <row r="351" spans="1:31">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>92</v>
       </c>
@@ -79143,7 +79174,7 @@
         <v>11653283</v>
       </c>
     </row>
-    <row r="352" spans="1:31">
+    <row r="352" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>92</v>
       </c>
@@ -79238,7 +79269,7 @@
         <v>11653322</v>
       </c>
     </row>
-    <row r="353" spans="1:31">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>92</v>
       </c>
@@ -79333,7 +79364,7 @@
         <v>11653446</v>
       </c>
     </row>
-    <row r="354" spans="1:31">
+    <row r="354" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>42</v>
       </c>
@@ -79428,7 +79459,7 @@
         <v>54623809</v>
       </c>
     </row>
-    <row r="355" spans="1:31">
+    <row r="355" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>44</v>
       </c>
@@ -79523,7 +79554,7 @@
         <v>58629164</v>
       </c>
     </row>
-    <row r="356" spans="1:31">
+    <row r="356" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>42</v>
       </c>
@@ -79618,7 +79649,7 @@
         <v>58729872</v>
       </c>
     </row>
-    <row r="357" spans="1:31">
+    <row r="357" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>44</v>
       </c>
@@ -79713,7 +79744,7 @@
         <v>72261385</v>
       </c>
     </row>
-    <row r="358" spans="1:31">
+    <row r="358" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>46</v>
       </c>
@@ -79808,7 +79839,7 @@
         <v>87802108</v>
       </c>
     </row>
-    <row r="359" spans="1:31">
+    <row r="359" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -79903,7 +79934,7 @@
         <v>87802121</v>
       </c>
     </row>
-    <row r="360" spans="1:31">
+    <row r="360" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>50</v>
       </c>
@@ -79998,7 +80029,7 @@
         <v>87988964</v>
       </c>
     </row>
-    <row r="361" spans="1:31">
+    <row r="361" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>171</v>
       </c>
@@ -80093,7 +80124,7 @@
         <v>92380469</v>
       </c>
     </row>
-    <row r="362" spans="1:31">
+    <row r="362" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>171</v>
       </c>
@@ -80188,7 +80219,7 @@
         <v>92380541</v>
       </c>
     </row>
-    <row r="363" spans="1:31">
+    <row r="363" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>37</v>
       </c>
@@ -80283,7 +80314,7 @@
         <v>92380806</v>
       </c>
     </row>
-    <row r="364" spans="1:31">
+    <row r="364" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>136</v>
       </c>
@@ -80378,7 +80409,7 @@
         <v>104363430</v>
       </c>
     </row>
-    <row r="365" spans="1:31">
+    <row r="365" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>37</v>
       </c>
@@ -80464,7 +80495,7 @@
         <v>121886464</v>
       </c>
     </row>
-    <row r="366" spans="1:31">
+    <row r="366" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>44</v>
       </c>
@@ -80559,7 +80590,7 @@
         <v>121886682</v>
       </c>
     </row>
-    <row r="367" spans="1:31">
+    <row r="367" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>57</v>
       </c>
@@ -80655,7 +80686,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AE424">
+  <autoFilter ref="B1:AE424" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState ref="B2:AR419">
       <sortCondition ref="P1:P476"/>
     </sortState>
@@ -80674,16 +80705,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD406"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -80778,7 +80809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -80825,7 +80856,7 @@
         <v>2101725098</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -80866,7 +80897,7 @@
         <v>2101732927</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -80901,7 +80932,7 @@
         <v>2101742514</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -80936,7 +80967,7 @@
         <v>2101742515</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -80971,7 +81002,7 @@
         <v>2101744421</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>396</v>
       </c>
@@ -81015,7 +81046,7 @@
         <v>2102124131</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>476</v>
       </c>
